--- a/GUI + Reviews/202503/CAC Family.xlsx
+++ b/GUI + Reviews/202503/CAC Family.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FBernardi\Downloads\Universes March 25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202503\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA8B8EC-1B10-4414-B86B-9334771BBFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45D90B9-9BC0-4E9F-8ED2-CFD5FC053C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PX1" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="419">
   <si>
     <t>Company</t>
   </si>
@@ -1303,12 +1303,6 @@
   </si>
   <si>
     <t>FR0004034072</t>
-  </si>
-  <si>
-    <t>NEOEN</t>
-  </si>
-  <si>
-    <t>FR0011675362</t>
   </si>
 </sst>
 </file>
@@ -4330,8 +4324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -4629,7 +4623,7 @@
         <v>179035979643</v>
       </c>
       <c r="E15" s="7">
-        <v>0.95000000000000007</v>
+        <v>0.95</v>
       </c>
       <c r="F15" s="8">
         <v>1</v>
@@ -5229,7 +5223,7 @@
         <v>73085760</v>
       </c>
       <c r="E45" s="7">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="F45" s="8">
         <v>1</v>
@@ -5277,19 +5271,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D48" s="6">
-        <v>185270000</v>
+        <v>50782552</v>
       </c>
       <c r="E48" s="7">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="F48" s="8">
         <v>1</v>
@@ -5297,19 +5291,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D49" s="6">
-        <v>197089340</v>
+        <v>185270000</v>
       </c>
       <c r="E49" s="7">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="F49" s="8">
         <v>1</v>
@@ -5317,19 +5311,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D50" s="6">
-        <v>76670861</v>
+        <v>197089340</v>
       </c>
       <c r="E50" s="7">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="F50" s="8">
         <v>1</v>
@@ -5337,19 +5331,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D51" s="6">
-        <v>550000000</v>
+        <v>76670861</v>
       </c>
       <c r="E51" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="F51" s="8">
         <v>1</v>
@@ -5357,19 +5351,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D52" s="6">
-        <v>37117772</v>
+        <v>550000000</v>
       </c>
       <c r="E52" s="7">
-        <v>0.95</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F52" s="8">
         <v>1</v>
@@ -5377,19 +5371,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D53" s="6">
-        <v>105569412</v>
+        <v>37117772</v>
       </c>
       <c r="E53" s="7">
-        <v>0.3</v>
+        <v>0.95</v>
       </c>
       <c r="F53" s="8">
         <v>1</v>
@@ -5397,19 +5391,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D54" s="6">
-        <v>76234545</v>
+        <v>105569412</v>
       </c>
       <c r="E54" s="7">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F54" s="8">
         <v>1</v>
@@ -5417,19 +5411,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D55" s="6">
-        <v>6173328</v>
+        <v>76234545</v>
       </c>
       <c r="E55" s="7">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="F55" s="8">
         <v>1</v>
@@ -5437,19 +5431,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D56" s="6">
-        <v>84940955</v>
+        <v>6173328</v>
       </c>
       <c r="E56" s="7">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="F56" s="8">
         <v>1</v>
@@ -5457,19 +5451,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D57" s="6">
-        <v>76116227</v>
+        <v>84940955</v>
       </c>
       <c r="E57" s="7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F57" s="8">
         <v>1</v>
@@ -5477,19 +5471,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D58" s="6">
-        <v>83814526</v>
+        <v>76116227</v>
       </c>
       <c r="E58" s="7">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="F58" s="8">
         <v>1</v>
@@ -5497,19 +5491,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D59" s="6">
-        <v>43203225</v>
+        <v>83814526</v>
       </c>
       <c r="E59" s="7">
-        <v>0.85</v>
+        <v>0.35</v>
       </c>
       <c r="F59" s="8">
         <v>1</v>
@@ -5517,19 +5511,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D60" s="6">
-        <v>213161658</v>
+        <v>43203225</v>
       </c>
       <c r="E60" s="7">
-        <v>0.3</v>
+        <v>0.85</v>
       </c>
       <c r="F60" s="8">
         <v>1</v>
@@ -5537,19 +5531,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D61" s="6">
-        <v>123420778</v>
+        <v>213161658</v>
       </c>
       <c r="E61" s="7">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F61" s="8">
         <v>1</v>
@@ -5557,19 +5551,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D62" s="6">
-        <v>286861172</v>
+        <v>123420778</v>
       </c>
       <c r="E62" s="7">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F62" s="8">
         <v>1</v>
@@ -5577,19 +5571,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D63" s="6">
-        <v>262245733</v>
+        <v>286861172</v>
       </c>
       <c r="E63" s="7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F63" s="8">
         <v>1</v>
@@ -5597,19 +5591,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D64" s="6">
-        <v>534955898</v>
+        <v>262245733</v>
       </c>
       <c r="E64" s="7">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="F64" s="8">
         <v>1</v>
@@ -5617,19 +5611,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D65" s="6">
-        <v>500141700</v>
+        <v>534955898</v>
       </c>
       <c r="E65" s="7">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="F65" s="8">
         <v>1</v>
@@ -5637,19 +5631,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D66" s="6">
-        <v>201261570</v>
+        <v>500141700</v>
       </c>
       <c r="E66" s="7">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F66" s="8">
         <v>1</v>
@@ -5657,19 +5651,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D67" s="6">
-        <v>29239507</v>
+        <v>201261570</v>
       </c>
       <c r="E67" s="7">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="F67" s="8">
         <v>1</v>
@@ -5677,19 +5671,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D68" s="6">
-        <v>93886501</v>
+        <v>29239507</v>
       </c>
       <c r="E68" s="7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F68" s="8">
         <v>1</v>
@@ -5697,19 +5691,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D69" s="6">
-        <v>24418312</v>
+        <v>93886501</v>
       </c>
       <c r="E69" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F69" s="8">
         <v>1</v>
@@ -5717,19 +5711,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D70" s="6">
-        <v>126414248</v>
+        <v>24418312</v>
       </c>
       <c r="E70" s="7">
-        <v>0.45</v>
+        <v>0.85</v>
       </c>
       <c r="F70" s="8">
         <v>1</v>
@@ -5737,19 +5731,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D71" s="6">
-        <v>714958226</v>
+        <v>126414248</v>
       </c>
       <c r="E71" s="7">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="F71" s="8">
         <v>1</v>
@@ -5757,19 +5751,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>419</v>
+        <v>35</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>420</v>
+        <v>121</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D72" s="6">
-        <v>152960584</v>
+        <v>714958226</v>
       </c>
       <c r="E72" s="7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F72" s="8">
         <v>1</v>
@@ -6569,7 +6563,7 @@
         <v>162521524</v>
       </c>
       <c r="E112" s="7">
-        <v>0.85000000000000009</v>
+        <v>0.85</v>
       </c>
       <c r="F112" s="8">
         <v>1</v>
@@ -6794,8 +6788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -6933,7 +6927,7 @@
         <v>179035979643</v>
       </c>
       <c r="E7" s="7">
-        <v>0.95000000000000007</v>
+        <v>0.95</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -7221,19 +7215,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D22" s="6">
-        <v>185270000</v>
+        <v>50782552</v>
       </c>
       <c r="E22" s="7">
-        <v>0.6</v>
+        <v>0.45</v>
       </c>
       <c r="F22" s="8">
         <v>1</v>
@@ -7241,19 +7235,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D23" s="6">
-        <v>197089340</v>
+        <v>185270000</v>
       </c>
       <c r="E23" s="7">
-        <v>0.85</v>
+        <v>0.6</v>
       </c>
       <c r="F23" s="8">
         <v>1</v>
@@ -7261,19 +7255,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D24" s="6">
-        <v>76234545</v>
+        <v>197089340</v>
       </c>
       <c r="E24" s="7">
-        <v>0.4</v>
+        <v>0.85</v>
       </c>
       <c r="F24" s="8">
         <v>1</v>
@@ -7281,19 +7275,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D25" s="6">
-        <v>6173328</v>
+        <v>76234545</v>
       </c>
       <c r="E25" s="7">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="F25" s="8">
         <v>1</v>
@@ -7301,19 +7295,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D26" s="6">
-        <v>84940955</v>
+        <v>6173328</v>
       </c>
       <c r="E26" s="7">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="F26" s="8">
         <v>1</v>
@@ -7321,19 +7315,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D27" s="6">
-        <v>76116227</v>
+        <v>84940955</v>
       </c>
       <c r="E27" s="7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F27" s="8">
         <v>1</v>
@@ -7341,19 +7335,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D28" s="6">
-        <v>83814526</v>
+        <v>76116227</v>
       </c>
       <c r="E28" s="7">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="F28" s="8">
         <v>1</v>
@@ -7361,19 +7355,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D29" s="6">
-        <v>43203225</v>
+        <v>83814526</v>
       </c>
       <c r="E29" s="7">
-        <v>0.85</v>
+        <v>0.35</v>
       </c>
       <c r="F29" s="8">
         <v>1</v>
@@ -7381,19 +7375,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D30" s="6">
-        <v>213161658</v>
+        <v>43203225</v>
       </c>
       <c r="E30" s="7">
-        <v>0.3</v>
+        <v>0.85</v>
       </c>
       <c r="F30" s="8">
         <v>1</v>
@@ -7401,16 +7395,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D31" s="6">
-        <v>201261570</v>
+        <v>213161658</v>
       </c>
       <c r="E31" s="7">
         <v>0.3</v>
@@ -7421,19 +7415,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D32" s="6">
-        <v>29239507</v>
+        <v>201261570</v>
       </c>
       <c r="E32" s="7">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="F32" s="8">
         <v>1</v>
@@ -7441,19 +7435,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D33" s="6">
-        <v>93886501</v>
+        <v>29239507</v>
       </c>
       <c r="E33" s="7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F33" s="8">
         <v>1</v>
@@ -7461,19 +7455,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D34" s="6">
-        <v>24418312</v>
+        <v>93886501</v>
       </c>
       <c r="E34" s="7">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F34" s="8">
         <v>1</v>
@@ -7481,19 +7475,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D35" s="6">
-        <v>126414248</v>
+        <v>24418312</v>
       </c>
       <c r="E35" s="7">
-        <v>0.45</v>
+        <v>0.85</v>
       </c>
       <c r="F35" s="8">
         <v>1</v>
@@ -7501,19 +7495,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>419</v>
+        <v>202</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>420</v>
+        <v>203</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D36" s="6">
-        <v>152960584</v>
+        <v>126414248</v>
       </c>
       <c r="E36" s="7">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="F36" s="8">
         <v>1</v>
@@ -7873,7 +7867,7 @@
         <v>162521524</v>
       </c>
       <c r="E54" s="7">
-        <v>0.85000000000000009</v>
+        <v>0.85</v>
       </c>
       <c r="F54" s="8">
         <v>1</v>
@@ -8058,8 +8052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -9920,8 +9914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G195"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -10299,7 +10293,7 @@
         <v>179035979643</v>
       </c>
       <c r="E19" s="7">
-        <v>0.95000000000000007</v>
+        <v>0.95</v>
       </c>
       <c r="F19" s="8">
         <v>1</v>
@@ -10559,7 +10553,7 @@
         <v>400939713</v>
       </c>
       <c r="E32" s="7">
-        <v>0.35000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="F32" s="8">
         <v>1</v>
@@ -11807,19 +11801,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="5" t="s">
-        <v>419</v>
+        <v>204</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>420</v>
+        <v>205</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D95" s="6">
-        <v>152960584</v>
+        <v>56129724</v>
       </c>
       <c r="E95" s="7">
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
       <c r="F95" s="8">
         <v>1</v>
@@ -11827,19 +11821,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D96" s="6">
-        <v>56129724</v>
+        <v>145522153</v>
       </c>
       <c r="E96" s="7">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="F96" s="8">
         <v>1</v>
@@ -11847,19 +11841,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
-        <v>206</v>
+        <v>373</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>207</v>
+        <v>374</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D97" s="6">
-        <v>145522153</v>
+        <v>50598277</v>
       </c>
       <c r="E97" s="7">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F97" s="8">
         <v>1</v>
@@ -11867,19 +11861,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D98" s="6">
-        <v>50598277</v>
+        <v>21817777</v>
       </c>
       <c r="E98" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F98" s="8">
         <v>1</v>
@@ -11887,19 +11881,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D99" s="6">
-        <v>21817777</v>
+        <v>151651536</v>
       </c>
       <c r="E99" s="7">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F99" s="8">
         <v>1</v>
@@ -11907,16 +11901,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D100" s="6">
-        <v>151651536</v>
+        <v>24922589</v>
       </c>
       <c r="E100" s="7">
         <v>0.2</v>
@@ -11927,19 +11921,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D101" s="6">
-        <v>24922589</v>
+        <v>9980668</v>
       </c>
       <c r="E101" s="7">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="F101" s="8">
         <v>1</v>
@@ -11947,19 +11941,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D102" s="6">
-        <v>9980668</v>
+        <v>454447336</v>
       </c>
       <c r="E102" s="7">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="F102" s="8">
         <v>1</v>
@@ -11967,16 +11961,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
-        <v>383</v>
+        <v>208</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>384</v>
+        <v>209</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D103" s="6">
-        <v>454447336</v>
+        <v>70024000</v>
       </c>
       <c r="E103" s="7">
         <v>0.3</v>
@@ -11987,19 +11981,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
-        <v>208</v>
+        <v>385</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>209</v>
+        <v>386</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D104" s="6">
-        <v>70024000</v>
+        <v>22125600</v>
       </c>
       <c r="E104" s="7">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="F104" s="8">
         <v>1</v>
@@ -12007,19 +12001,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>386</v>
+        <v>211</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D105" s="6">
-        <v>22125600</v>
+        <v>147174692</v>
       </c>
       <c r="E105" s="7">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F105" s="8">
         <v>1</v>
@@ -12027,19 +12021,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
-        <v>210</v>
+        <v>387</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>211</v>
+        <v>388</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D106" s="6">
-        <v>147174692</v>
+        <v>53758167</v>
       </c>
       <c r="E106" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="F106" s="8">
         <v>1</v>
@@ -12047,19 +12041,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D107" s="6">
-        <v>53758167</v>
+        <v>51623324</v>
       </c>
       <c r="E107" s="7">
-        <v>0.95000000000000007</v>
+        <v>0.65</v>
       </c>
       <c r="F107" s="8">
         <v>1</v>
@@ -12067,16 +12061,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D108" s="6">
-        <v>51623324</v>
+        <v>34468912</v>
       </c>
       <c r="E108" s="7">
         <v>0.65</v>
@@ -12087,19 +12081,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
-        <v>391</v>
+        <v>212</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>392</v>
+        <v>213</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D109" s="6">
-        <v>34468912</v>
+        <v>51252969</v>
       </c>
       <c r="E109" s="7">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="F109" s="8">
         <v>1</v>
@@ -12107,19 +12101,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D110" s="6">
-        <v>51252969</v>
+        <v>2167745</v>
       </c>
       <c r="E110" s="7">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="F110" s="8">
         <v>1</v>
@@ -12127,19 +12121,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D111" s="6">
-        <v>2167745</v>
+        <v>104156127</v>
       </c>
       <c r="E111" s="7">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F111" s="8">
         <v>1</v>
@@ -12147,19 +12141,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D112" s="6">
-        <v>104156127</v>
+        <v>55337770</v>
       </c>
       <c r="E112" s="7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F112" s="8">
         <v>1</v>
@@ -12167,19 +12161,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
-        <v>218</v>
+        <v>393</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>219</v>
+        <v>394</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D113" s="6">
-        <v>55337770</v>
+        <v>7857732</v>
       </c>
       <c r="E113" s="7">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="F113" s="8">
         <v>1</v>
@@ -12187,19 +12181,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D114" s="6">
-        <v>7857732</v>
+        <v>12299259</v>
       </c>
       <c r="E114" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F114" s="8">
         <v>1</v>
@@ -12207,19 +12201,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="5" t="s">
-        <v>395</v>
+        <v>220</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>396</v>
+        <v>221</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D115" s="6">
-        <v>12299259</v>
+        <v>383457600</v>
       </c>
       <c r="E115" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F115" s="8">
         <v>1</v>
@@ -12227,19 +12221,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="5" t="s">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>221</v>
+        <v>398</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D116" s="6">
-        <v>383457600</v>
+        <v>75591187</v>
       </c>
       <c r="E116" s="7">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F116" s="8">
         <v>1</v>
@@ -12247,19 +12241,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="5" t="s">
-        <v>397</v>
+        <v>222</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>398</v>
+        <v>223</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D117" s="6">
-        <v>75591187</v>
+        <v>35724746</v>
       </c>
       <c r="E117" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="F117" s="8">
         <v>1</v>
@@ -12267,19 +12261,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="5" t="s">
-        <v>222</v>
+        <v>399</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>223</v>
+        <v>400</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D118" s="6">
-        <v>35724746</v>
+        <v>33316837</v>
       </c>
       <c r="E118" s="7">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
       <c r="F118" s="8">
         <v>1</v>
@@ -12287,19 +12281,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D119" s="6">
-        <v>33316837</v>
+        <v>107127984</v>
       </c>
       <c r="E119" s="7">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="F119" s="8">
         <v>1</v>
@@ -12307,19 +12301,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="5" t="s">
-        <v>401</v>
+        <v>224</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>402</v>
+        <v>225</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D120" s="6">
-        <v>107127984</v>
+        <v>105876416</v>
       </c>
       <c r="E120" s="7">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="F120" s="8">
         <v>1</v>
@@ -12327,19 +12321,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="D121" s="6">
-        <v>105876416</v>
+        <v>20547701</v>
       </c>
       <c r="E121" s="7">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="F121" s="8">
         <v>1</v>
@@ -12347,19 +12341,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="5" t="s">
-        <v>227</v>
+        <v>403</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>228</v>
+        <v>404</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D122" s="6">
-        <v>20547701</v>
+        <v>9544965</v>
       </c>
       <c r="E122" s="7">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F122" s="8">
         <v>1</v>
@@ -12367,19 +12361,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="5" t="s">
-        <v>403</v>
+        <v>229</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>404</v>
+        <v>230</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D123" s="6">
-        <v>9544965</v>
+        <v>181583893</v>
       </c>
       <c r="E123" s="7">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="F123" s="8">
         <v>1</v>
@@ -12387,19 +12381,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D124" s="6">
-        <v>181583893</v>
+        <v>211001575</v>
       </c>
       <c r="E124" s="7">
-        <v>0.75</v>
+        <v>0.45</v>
       </c>
       <c r="F124" s="8">
         <v>1</v>
@@ -12407,19 +12401,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="5" t="s">
-        <v>231</v>
+        <v>405</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>232</v>
+        <v>406</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D125" s="6">
-        <v>211001575</v>
+        <v>7011547</v>
       </c>
       <c r="E125" s="7">
-        <v>0.45</v>
+        <v>0.65</v>
       </c>
       <c r="F125" s="8">
         <v>1</v>
@@ -12427,19 +12421,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="5" t="s">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>406</v>
+        <v>234</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D126" s="6">
-        <v>7011547</v>
+        <v>19336269</v>
       </c>
       <c r="E126" s="7">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="F126" s="8">
         <v>1</v>
@@ -12447,19 +12441,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D127" s="6">
-        <v>19336269</v>
+        <v>128399295</v>
       </c>
       <c r="E127" s="7">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="F127" s="8">
         <v>1</v>
@@ -12467,19 +12461,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D128" s="6">
-        <v>128399295</v>
+        <v>229947719</v>
       </c>
       <c r="E128" s="7">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="F128" s="8">
         <v>1</v>
@@ -12487,19 +12481,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D129" s="6">
-        <v>229947719</v>
+        <v>162521524</v>
       </c>
       <c r="E129" s="7">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="F129" s="8">
         <v>1</v>
@@ -12507,19 +12501,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="5" t="s">
-        <v>239</v>
+        <v>407</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>240</v>
+        <v>408</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D130" s="6">
-        <v>162521524</v>
+        <v>490136411</v>
       </c>
       <c r="E130" s="7">
-        <v>0.85000000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="F130" s="8">
         <v>1</v>
@@ -12527,19 +12521,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="5" t="s">
-        <v>407</v>
+        <v>241</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>408</v>
+        <v>242</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D131" s="6">
-        <v>490136411</v>
+        <v>120805103</v>
       </c>
       <c r="E131" s="7">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="F131" s="8">
         <v>1</v>
@@ -12547,19 +12541,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="5" t="s">
-        <v>241</v>
+        <v>409</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>242</v>
+        <v>410</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D132" s="6">
-        <v>120805103</v>
+        <v>85535147</v>
       </c>
       <c r="E132" s="7">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="F132" s="8">
         <v>1</v>
@@ -12567,19 +12561,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="5" t="s">
-        <v>409</v>
+        <v>243</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>410</v>
+        <v>244</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D133" s="6">
-        <v>85535147</v>
+        <v>44900000</v>
       </c>
       <c r="E133" s="7">
-        <v>0.65</v>
+        <v>0.35</v>
       </c>
       <c r="F133" s="8">
         <v>1</v>
@@ -12587,19 +12581,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D134" s="6">
-        <v>44900000</v>
+        <v>8458000</v>
       </c>
       <c r="E134" s="7">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="F134" s="8">
         <v>1</v>
@@ -12607,19 +12601,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D135" s="6">
-        <v>8458000</v>
+        <v>7161465</v>
       </c>
       <c r="E135" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F135" s="8">
         <v>1</v>
@@ -12627,19 +12621,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D136" s="6">
-        <v>7161465</v>
+        <v>1029918125</v>
       </c>
       <c r="E136" s="7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F136" s="8">
         <v>1</v>
@@ -12647,19 +12641,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="5" t="s">
-        <v>249</v>
+        <v>411</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>250</v>
+        <v>412</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D137" s="6">
-        <v>1029918125</v>
+        <v>131318716</v>
       </c>
       <c r="E137" s="7">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="F137" s="8">
         <v>1</v>
@@ -12667,19 +12661,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="5" t="s">
-        <v>411</v>
+        <v>251</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>412</v>
+        <v>252</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D138" s="6">
-        <v>131318716</v>
+        <v>16071708</v>
       </c>
       <c r="E138" s="7">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="F138" s="8">
         <v>1</v>
@@ -12687,19 +12681,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="5" t="s">
-        <v>251</v>
+        <v>413</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>252</v>
+        <v>414</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D139" s="6">
-        <v>16071708</v>
+        <v>24906332</v>
       </c>
       <c r="E139" s="7">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="F139" s="8">
         <v>1</v>
@@ -12707,19 +12701,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="5" t="s">
-        <v>413</v>
+        <v>253</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>414</v>
+        <v>254</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D140" s="6">
-        <v>24906332</v>
+        <v>44430554</v>
       </c>
       <c r="E140" s="7">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="F140" s="8">
         <v>1</v>
@@ -12727,19 +12721,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D141" s="6">
-        <v>44430554</v>
+        <v>283571633</v>
       </c>
       <c r="E141" s="7">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="F141" s="8">
         <v>1</v>
@@ -12747,19 +12741,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="5" t="s">
-        <v>255</v>
+        <v>415</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>256</v>
+        <v>416</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D142" s="6">
-        <v>283571633</v>
+        <v>130781669</v>
       </c>
       <c r="E142" s="7">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="F142" s="8">
         <v>1</v>
@@ -12767,43 +12761,31 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D143" s="6">
-        <v>130781669</v>
+        <v>5893799</v>
       </c>
       <c r="E143" s="7">
-        <v>0.35</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F143" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A144" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D144" s="6">
-        <v>5893799</v>
-      </c>
-      <c r="E144" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F144" s="8">
-        <v>1</v>
-      </c>
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="8"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A145" s="5"/>
@@ -13283,7 +13265,7 @@
   <dimension ref="A1:H255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A204" sqref="A204:F204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -13822,7 +13804,7 @@
         <v>179035979643</v>
       </c>
       <c r="E27" s="7">
-        <v>0.95000000000000007</v>
+        <v>0.95</v>
       </c>
       <c r="F27" s="8">
         <v>1</v>
@@ -14222,7 +14204,7 @@
         <v>400939713</v>
       </c>
       <c r="E47" s="7">
-        <v>0.35000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="F47" s="8">
         <v>1</v>
@@ -14762,7 +14744,7 @@
         <v>73085760</v>
       </c>
       <c r="E74" s="7">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="F74" s="8">
         <v>1</v>
@@ -15890,19 +15872,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="5" t="s">
-        <v>419</v>
+        <v>97</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>420</v>
+        <v>98</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D131" s="6">
-        <v>152960584</v>
+        <v>43753380</v>
       </c>
       <c r="E131" s="7">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F131" s="8">
         <v>1</v>
@@ -15910,19 +15892,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="5" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D132" s="6">
-        <v>43753380</v>
+        <v>56129724</v>
       </c>
       <c r="E132" s="7">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="F132" s="8">
         <v>1</v>
@@ -15930,19 +15912,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D133" s="6">
-        <v>56129724</v>
+        <v>145522153</v>
       </c>
       <c r="E133" s="7">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="F133" s="8">
         <v>1</v>
@@ -15950,19 +15932,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="5" t="s">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D134" s="6">
-        <v>145522153</v>
+        <v>2660056599</v>
       </c>
       <c r="E134" s="7">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F134" s="8">
         <v>1</v>
@@ -15970,19 +15952,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="5" t="s">
-        <v>36</v>
+        <v>373</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D135" s="6">
-        <v>2660056599</v>
+        <v>50598277</v>
       </c>
       <c r="E135" s="7">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="F135" s="8">
         <v>1</v>
@@ -15990,19 +15972,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D136" s="6">
-        <v>50598277</v>
+        <v>21817777</v>
       </c>
       <c r="E136" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F136" s="8">
         <v>1</v>
@@ -16010,19 +15992,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D137" s="6">
-        <v>21817777</v>
+        <v>151651536</v>
       </c>
       <c r="E137" s="7">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F137" s="8">
         <v>1</v>
@@ -16030,19 +16012,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="5" t="s">
-        <v>377</v>
+        <v>38</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>378</v>
+        <v>39</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D138" s="6">
-        <v>151651536</v>
+        <v>253328748</v>
       </c>
       <c r="E138" s="7">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F138" s="8">
         <v>1</v>
@@ -16050,19 +16032,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="5" t="s">
-        <v>38</v>
+        <v>379</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>39</v>
+        <v>380</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D139" s="6">
-        <v>253328748</v>
+        <v>24922589</v>
       </c>
       <c r="E139" s="7">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="F139" s="8">
         <v>1</v>
@@ -16070,19 +16052,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D140" s="6">
-        <v>24922589</v>
+        <v>9980668</v>
       </c>
       <c r="E140" s="7">
-        <v>0.2</v>
+        <v>0.65</v>
       </c>
       <c r="F140" s="8">
         <v>1</v>
@@ -16090,19 +16072,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D141" s="6">
-        <v>9980668</v>
+        <v>454447336</v>
       </c>
       <c r="E141" s="7">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="F141" s="8">
         <v>1</v>
@@ -16110,16 +16092,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="5" t="s">
-        <v>383</v>
+        <v>208</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>384</v>
+        <v>209</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D142" s="6">
-        <v>454447336</v>
+        <v>70024000</v>
       </c>
       <c r="E142" s="7">
         <v>0.3</v>
@@ -16130,19 +16112,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="5" t="s">
-        <v>208</v>
+        <v>385</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>209</v>
+        <v>386</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D143" s="6">
-        <v>70024000</v>
+        <v>22125600</v>
       </c>
       <c r="E143" s="7">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="F143" s="8">
         <v>1</v>
@@ -16150,19 +16132,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="5" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>386</v>
+        <v>211</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D144" s="6">
-        <v>22125600</v>
+        <v>147174692</v>
       </c>
       <c r="E144" s="7">
-        <v>0.45</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F144" s="8">
         <v>1</v>
@@ -16170,19 +16152,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="5" t="s">
-        <v>210</v>
+        <v>387</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>211</v>
+        <v>388</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D145" s="6">
-        <v>147174692</v>
+        <v>53758167</v>
       </c>
       <c r="E145" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.95</v>
       </c>
       <c r="F145" s="8">
         <v>1</v>
@@ -16190,19 +16172,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D146" s="6">
-        <v>53758167</v>
+        <v>51623324</v>
       </c>
       <c r="E146" s="7">
-        <v>0.95000000000000007</v>
+        <v>0.65</v>
       </c>
       <c r="F146" s="8">
         <v>1</v>
@@ -16210,19 +16192,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="5" t="s">
-        <v>389</v>
+        <v>40</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>390</v>
+        <v>41</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D147" s="6">
-        <v>51623324</v>
+        <v>254311860</v>
       </c>
       <c r="E147" s="7">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="F147" s="8">
         <v>1</v>
@@ -16230,19 +16212,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="5" t="s">
-        <v>40</v>
+        <v>391</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>41</v>
+        <v>392</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D148" s="6">
-        <v>254311860</v>
+        <v>34468912</v>
       </c>
       <c r="E148" s="7">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="F148" s="8">
         <v>1</v>
@@ -16250,19 +16232,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="5" t="s">
-        <v>391</v>
+        <v>212</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>392</v>
+        <v>213</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D149" s="6">
-        <v>34468912</v>
+        <v>51252969</v>
       </c>
       <c r="E149" s="7">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="F149" s="8">
         <v>1</v>
@@ -16270,19 +16252,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="5" t="s">
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D150" s="6">
-        <v>51252969</v>
+        <v>295722284</v>
       </c>
       <c r="E150" s="7">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="F150" s="8">
         <v>1</v>
@@ -16290,16 +16272,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="5" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D151" s="6">
-        <v>295722284</v>
+        <v>301735000</v>
       </c>
       <c r="E151" s="7">
         <v>0.7</v>
@@ -16310,19 +16292,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="5" t="s">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D152" s="6">
-        <v>301735000</v>
+        <v>2167745</v>
       </c>
       <c r="E152" s="7">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="F152" s="8">
         <v>1</v>
@@ -16330,19 +16312,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D153" s="6">
-        <v>2167745</v>
+        <v>104156127</v>
       </c>
       <c r="E153" s="7">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="F153" s="8">
         <v>1</v>
@@ -16350,19 +16332,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D154" s="6">
-        <v>104156127</v>
+        <v>55337770</v>
       </c>
       <c r="E154" s="7">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F154" s="8">
         <v>1</v>
@@ -16370,19 +16352,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="5" t="s">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D155" s="6">
-        <v>55337770</v>
+        <v>427260541</v>
       </c>
       <c r="E155" s="7">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="F155" s="8">
         <v>1</v>
@@ -16390,19 +16372,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D156" s="6">
-        <v>427260541</v>
+        <v>504005802</v>
       </c>
       <c r="E156" s="7">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="F156" s="8">
         <v>1</v>
@@ -16410,16 +16392,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D157" s="6">
-        <v>504005802</v>
+        <v>1268607152</v>
       </c>
       <c r="E157" s="7">
         <v>0.9</v>
@@ -16430,19 +16412,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="5" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D158" s="6">
-        <v>1268607152</v>
+        <v>97330405</v>
       </c>
       <c r="E158" s="7">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="F158" s="8">
         <v>1</v>
@@ -16450,19 +16432,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="5" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D159" s="6">
-        <v>97330405</v>
+        <v>575627026</v>
       </c>
       <c r="E159" s="7">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F159" s="8">
         <v>1</v>
@@ -16470,19 +16452,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="5" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D160" s="6">
-        <v>575627026</v>
+        <v>179362195</v>
       </c>
       <c r="E160" s="7">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="F160" s="8">
         <v>1</v>
@@ -16490,19 +16472,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="5" t="s">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>81</v>
+        <v>394</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D161" s="6">
-        <v>179362195</v>
+        <v>7857732</v>
       </c>
       <c r="E161" s="7">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="F161" s="8">
         <v>1</v>
@@ -16510,19 +16492,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D162" s="6">
-        <v>7857732</v>
+        <v>12299259</v>
       </c>
       <c r="E162" s="7">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="F162" s="8">
         <v>1</v>
@@ -16530,19 +16512,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" s="5" t="s">
-        <v>395</v>
+        <v>220</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>396</v>
+        <v>221</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D163" s="6">
-        <v>12299259</v>
+        <v>383457600</v>
       </c>
       <c r="E163" s="7">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F163" s="8">
         <v>1</v>
@@ -16550,19 +16532,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" s="5" t="s">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>221</v>
+        <v>398</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D164" s="6">
-        <v>383457600</v>
+        <v>75591187</v>
       </c>
       <c r="E164" s="7">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F164" s="8">
         <v>1</v>
@@ -16570,19 +16552,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" s="5" t="s">
-        <v>397</v>
+        <v>52</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>398</v>
+        <v>53</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D165" s="6">
-        <v>75591187</v>
+        <v>812035548</v>
       </c>
       <c r="E165" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="F165" s="8">
         <v>1</v>
@@ -16590,19 +16572,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C166" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D166" s="6">
-        <v>812035548</v>
+        <v>147454887</v>
       </c>
       <c r="E166" s="7">
-        <v>0.9</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F166" s="8">
         <v>1</v>
@@ -16610,19 +16592,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" s="5" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>55</v>
+        <v>223</v>
       </c>
       <c r="C167" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D167" s="6">
-        <v>147454887</v>
+        <v>35724746</v>
       </c>
       <c r="E167" s="7">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="F167" s="8">
         <v>1</v>
@@ -16630,19 +16612,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" s="5" t="s">
-        <v>222</v>
+        <v>399</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>223</v>
+        <v>400</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D168" s="6">
-        <v>35724746</v>
+        <v>33316837</v>
       </c>
       <c r="E168" s="7">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
       <c r="F168" s="8">
         <v>1</v>
@@ -16650,19 +16632,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D169" s="6">
-        <v>33316837</v>
+        <v>107127984</v>
       </c>
       <c r="E169" s="7">
-        <v>0.35</v>
+        <v>0.85</v>
       </c>
       <c r="F169" s="8">
         <v>1</v>
@@ -16670,19 +16652,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="5" t="s">
-        <v>401</v>
+        <v>224</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>402</v>
+        <v>225</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="D170" s="6">
-        <v>107127984</v>
+        <v>105876416</v>
       </c>
       <c r="E170" s="7">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="F170" s="8">
         <v>1</v>
@@ -16690,19 +16672,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>226</v>
+        <v>123</v>
       </c>
       <c r="D171" s="6">
-        <v>105876416</v>
+        <v>20547701</v>
       </c>
       <c r="E171" s="7">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="F171" s="8">
         <v>1</v>
@@ -16710,19 +16692,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" s="5" t="s">
-        <v>227</v>
+        <v>103</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>228</v>
+        <v>104</v>
       </c>
       <c r="C172" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D172" s="6">
-        <v>20547701</v>
+        <v>166907584</v>
       </c>
       <c r="E172" s="7">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F172" s="8">
         <v>1</v>
@@ -16730,19 +16712,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" s="5" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D173" s="6">
-        <v>166907584</v>
+        <v>3023129879</v>
       </c>
       <c r="E173" s="7">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F173" s="8">
         <v>1</v>
@@ -16750,16 +16732,16 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" s="5" t="s">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D174" s="6">
-        <v>3023129879</v>
+        <v>911281920</v>
       </c>
       <c r="E174" s="7">
         <v>0.7</v>
@@ -16770,19 +16752,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" s="5" t="s">
-        <v>56</v>
+        <v>403</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>57</v>
+        <v>404</v>
       </c>
       <c r="C175" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D175" s="6">
-        <v>911281920</v>
+        <v>9544965</v>
       </c>
       <c r="E175" s="7">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F175" s="8">
         <v>1</v>
@@ -16790,19 +16772,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" s="5" t="s">
-        <v>403</v>
+        <v>229</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>404</v>
+        <v>230</v>
       </c>
       <c r="C176" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D176" s="6">
-        <v>9544965</v>
+        <v>181583893</v>
       </c>
       <c r="E176" s="7">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="F176" s="8">
         <v>1</v>
@@ -16810,19 +16792,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" s="5" t="s">
-        <v>229</v>
+        <v>82</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D177" s="6">
-        <v>181583893</v>
+        <v>60738823</v>
       </c>
       <c r="E177" s="7">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="F177" s="8">
         <v>1</v>
@@ -16830,19 +16812,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" s="5" t="s">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D178" s="6">
-        <v>60738823</v>
+        <v>211001575</v>
       </c>
       <c r="E178" s="7">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
       <c r="F178" s="8">
         <v>1</v>
@@ -16850,19 +16832,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" s="5" t="s">
-        <v>231</v>
+        <v>84</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D179" s="6">
-        <v>211001575</v>
+        <v>210210140</v>
       </c>
       <c r="E179" s="7">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="F179" s="8">
         <v>1</v>
@@ -16870,19 +16852,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" s="5" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D180" s="6">
-        <v>210210140</v>
+        <v>2397679661</v>
       </c>
       <c r="E180" s="7">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F180" s="8">
         <v>1</v>
@@ -16890,19 +16872,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" s="5" t="s">
-        <v>119</v>
+        <v>405</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>58</v>
+        <v>406</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D181" s="6">
-        <v>2397679661</v>
+        <v>7011547</v>
       </c>
       <c r="E181" s="7">
-        <v>0.95</v>
+        <v>0.65</v>
       </c>
       <c r="F181" s="8">
         <v>1</v>
@@ -16910,19 +16892,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" s="5" t="s">
-        <v>405</v>
+        <v>233</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>406</v>
+        <v>234</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D182" s="6">
-        <v>7011547</v>
+        <v>19336269</v>
       </c>
       <c r="E182" s="7">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="F182" s="8">
         <v>1</v>
@@ -16930,19 +16912,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D183" s="6">
-        <v>19336269</v>
+        <v>128399295</v>
       </c>
       <c r="E183" s="7">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="F183" s="8">
         <v>1</v>
@@ -16950,19 +16932,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184" s="5" t="s">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D184" s="6">
-        <v>128399295</v>
+        <v>139364104</v>
       </c>
       <c r="E184" s="7">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="F184" s="8">
         <v>1</v>
@@ -16970,16 +16952,16 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" s="5" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D185" s="6">
-        <v>139364104</v>
+        <v>244633504</v>
       </c>
       <c r="E185" s="7">
         <v>0.85</v>
@@ -16990,19 +16972,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" s="5" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>61</v>
+        <v>238</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D186" s="6">
-        <v>244633504</v>
+        <v>229947719</v>
       </c>
       <c r="E186" s="7">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="F186" s="8">
         <v>1</v>
@@ -17010,19 +16992,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D187" s="6">
-        <v>229947719</v>
+        <v>162521524</v>
       </c>
       <c r="E187" s="7">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="F187" s="8">
         <v>1</v>
@@ -17030,19 +17012,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" s="5" t="s">
-        <v>239</v>
+        <v>407</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>240</v>
+        <v>408</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D188" s="6">
-        <v>162521524</v>
+        <v>490136411</v>
       </c>
       <c r="E188" s="7">
-        <v>0.85000000000000009</v>
+        <v>0.25</v>
       </c>
       <c r="F188" s="8">
         <v>1</v>
@@ -17050,19 +17032,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" s="5" t="s">
-        <v>407</v>
+        <v>62</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>408</v>
+        <v>63</v>
       </c>
       <c r="C189" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D189" s="6">
-        <v>490136411</v>
+        <v>726148514</v>
       </c>
       <c r="E189" s="7">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
       <c r="F189" s="8">
         <v>1</v>
@@ -17070,19 +17052,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" s="5" t="s">
-        <v>62</v>
+        <v>241</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>63</v>
+        <v>242</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D190" s="6">
-        <v>726148514</v>
+        <v>120805103</v>
       </c>
       <c r="E190" s="7">
-        <v>0.95</v>
+        <v>0.6</v>
       </c>
       <c r="F190" s="8">
         <v>1</v>
@@ -17090,19 +17072,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" s="5" t="s">
-        <v>241</v>
+        <v>409</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>242</v>
+        <v>410</v>
       </c>
       <c r="C191" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D191" s="6">
-        <v>120805103</v>
+        <v>85535147</v>
       </c>
       <c r="E191" s="7">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="F191" s="8">
         <v>1</v>
@@ -17110,19 +17092,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" s="5" t="s">
-        <v>409</v>
+        <v>243</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>410</v>
+        <v>244</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D192" s="6">
-        <v>85535147</v>
+        <v>44900000</v>
       </c>
       <c r="E192" s="7">
-        <v>0.65</v>
+        <v>0.35</v>
       </c>
       <c r="F192" s="8">
         <v>1</v>
@@ -17130,19 +17112,19 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A193" s="5" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>244</v>
+        <v>65</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D193" s="6">
-        <v>44900000</v>
+        <v>588519218</v>
       </c>
       <c r="E193" s="7">
-        <v>0.35</v>
+        <v>0.9</v>
       </c>
       <c r="F193" s="8">
         <v>1</v>
@@ -17150,19 +17132,19 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A194" s="5" t="s">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>65</v>
+        <v>246</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D194" s="6">
-        <v>588519218</v>
+        <v>8458000</v>
       </c>
       <c r="E194" s="7">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F194" s="8">
         <v>1</v>
@@ -17170,19 +17152,19 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A195" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D195" s="6">
-        <v>8458000</v>
+        <v>7161465</v>
       </c>
       <c r="E195" s="7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F195" s="8">
         <v>1</v>
@@ -17190,19 +17172,19 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A196" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D196" s="6">
-        <v>7161465</v>
+        <v>1029918125</v>
       </c>
       <c r="E196" s="7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="F196" s="8">
         <v>1</v>
@@ -17210,19 +17192,19 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A197" s="5" t="s">
-        <v>249</v>
+        <v>411</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>250</v>
+        <v>412</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D197" s="6">
-        <v>1029918125</v>
+        <v>131318716</v>
       </c>
       <c r="E197" s="7">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="F197" s="8">
         <v>1</v>
@@ -17230,19 +17212,19 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A198" s="5" t="s">
-        <v>411</v>
+        <v>251</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>412</v>
+        <v>252</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D198" s="6">
-        <v>131318716</v>
+        <v>16071708</v>
       </c>
       <c r="E198" s="7">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="F198" s="8">
         <v>1</v>
@@ -17250,19 +17232,19 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A199" s="5" t="s">
-        <v>251</v>
+        <v>413</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>252</v>
+        <v>414</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D199" s="6">
-        <v>16071708</v>
+        <v>24906332</v>
       </c>
       <c r="E199" s="7">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="F199" s="8">
         <v>1</v>
@@ -17270,19 +17252,19 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A200" s="5" t="s">
-        <v>413</v>
+        <v>253</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>414</v>
+        <v>254</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D200" s="6">
-        <v>24906332</v>
+        <v>44430554</v>
       </c>
       <c r="E200" s="7">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
       <c r="F200" s="8">
         <v>1</v>
@@ -17290,19 +17272,19 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A201" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D201" s="6">
-        <v>44430554</v>
+        <v>283571633</v>
       </c>
       <c r="E201" s="7">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="F201" s="8">
         <v>1</v>
@@ -17310,19 +17292,19 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A202" s="5" t="s">
-        <v>255</v>
+        <v>415</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>256</v>
+        <v>416</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D202" s="6">
-        <v>283571633</v>
+        <v>130781669</v>
       </c>
       <c r="E202" s="7">
-        <v>0.75</v>
+        <v>0.35</v>
       </c>
       <c r="F202" s="8">
         <v>1</v>
@@ -17330,43 +17312,31 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A203" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D203" s="6">
-        <v>130781669</v>
+        <v>5893799</v>
       </c>
       <c r="E203" s="7">
-        <v>0.35</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F203" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A204" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D204" s="6">
-        <v>5893799</v>
-      </c>
-      <c r="E204" s="7">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F204" s="8">
-        <v>1</v>
-      </c>
+      <c r="A204" s="5"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="6"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="8"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A205" s="5"/>

--- a/GUI + Reviews/202503/CAC Family.xlsx
+++ b/GUI + Reviews/202503/CAC Family.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\PM-Indices-IndexOperations\Review Files\202503\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202503/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45D90B9-9BC0-4E9F-8ED2-CFD5FC053C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{611B88E5-6E58-47A2-B469-19DF79CD0EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PX1" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="421">
   <si>
     <t>Company</t>
   </si>
@@ -1303,6 +1303,12 @@
   </si>
   <si>
     <t>FR0004034072</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>EUR</t>
   </si>
 </sst>
 </file>
@@ -1730,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1747,7 +1753,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>128</v>
       </c>
@@ -1757,7 +1763,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1776,8 +1782,11 @@
       <c r="F2" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1796,8 +1805,11 @@
       <c r="F3" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1816,8 +1828,11 @@
       <c r="F4" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1836,8 +1851,11 @@
       <c r="F5" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1856,8 +1874,11 @@
       <c r="F6" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1876,8 +1897,11 @@
       <c r="F7" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1896,8 +1920,11 @@
       <c r="F8" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1916,8 +1943,11 @@
       <c r="F9" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
@@ -1936,8 +1966,11 @@
       <c r="F10" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1956,8 +1989,11 @@
       <c r="F11" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
@@ -1976,8 +2012,11 @@
       <c r="F12" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1996,8 +2035,11 @@
       <c r="F13" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G13" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
@@ -2016,8 +2058,11 @@
       <c r="F14" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G14" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -2036,8 +2081,11 @@
       <c r="F15" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G15" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
@@ -2056,8 +2104,11 @@
       <c r="F16" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
@@ -2076,8 +2127,11 @@
       <c r="F17" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>114</v>
       </c>
@@ -2096,8 +2150,11 @@
       <c r="F18" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>90</v>
       </c>
@@ -2116,8 +2173,11 @@
       <c r="F19" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
@@ -2136,8 +2196,11 @@
       <c r="F20" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -2156,8 +2219,11 @@
       <c r="F21" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G21" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
@@ -2176,8 +2242,11 @@
       <c r="F22" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>118</v>
       </c>
@@ -2196,8 +2265,11 @@
       <c r="F23" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
@@ -2216,8 +2288,11 @@
       <c r="F24" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G24" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
@@ -2236,8 +2311,11 @@
       <c r="F25" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G25" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
@@ -2256,8 +2334,11 @@
       <c r="F26" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G26" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>38</v>
       </c>
@@ -2276,8 +2357,11 @@
       <c r="F27" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G27" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>40</v>
       </c>
@@ -2296,8 +2380,11 @@
       <c r="F28" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G28" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>42</v>
       </c>
@@ -2316,8 +2403,11 @@
       <c r="F29" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G29" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>44</v>
       </c>
@@ -2336,8 +2426,11 @@
       <c r="F30" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G30" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>46</v>
       </c>
@@ -2356,8 +2449,11 @@
       <c r="F31" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G31" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>48</v>
       </c>
@@ -2376,8 +2472,11 @@
       <c r="F32" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G32" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
@@ -2396,8 +2495,11 @@
       <c r="F33" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G33" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>52</v>
       </c>
@@ -2416,8 +2518,11 @@
       <c r="F34" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G34" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>135</v>
       </c>
@@ -2436,8 +2541,11 @@
       <c r="F35" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G35" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>56</v>
       </c>
@@ -2456,8 +2564,11 @@
       <c r="F36" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G36" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>82</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="F37" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G37" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>84</v>
       </c>
@@ -2496,8 +2610,11 @@
       <c r="F38" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G38" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
         <v>119</v>
       </c>
@@ -2516,8 +2633,11 @@
       <c r="F39" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G39" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>113</v>
       </c>
@@ -2536,8 +2656,11 @@
       <c r="F40" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G40" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
         <v>62</v>
       </c>
@@ -2556,8 +2679,11 @@
       <c r="F41" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G41" s="8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>64</v>
       </c>
@@ -2575,6 +2701,9 @@
       </c>
       <c r="F42" s="8">
         <v>1</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/GUI + Reviews/202503/CAC Family.xlsx
+++ b/GUI + Reviews/202503/CAC Family.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://euronext-my.sharepoint.com/personal/csonneveld_euronext_com/Documents/Documents/Projects/GUI + Reviews/202503/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{611B88E5-6E58-47A2-B469-19DF79CD0EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D45D90B9-9BC0-4E9F-8ED2-CFD5FC053C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FCF2881-F457-452C-8458-B7CE4E216A1D}"/>
   <bookViews>
-    <workbookView xWindow="-315" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29115" yWindow="-16005" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PX1" sheetId="2" r:id="rId1"/>
@@ -1738,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
